--- a/file.xlsx
+++ b/file.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1360123802</v>
+        <v>1713429274</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9789743844</t>
+          <t>9990448428</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
